--- a/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0__磐石组.xlsx
+++ b/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0__磐石组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\数据隔离\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:T215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
